--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.2368034736158703, 0.10137672935198867, 0.10339204009556303, 0.07615509132212937, 0.08798568615300612, 0.2368064940310997, 0.3855662145084718, 0.23229323130448057, 0.08826900296038423, 0.05346089897049183, 0.06606172803440846, 0.08941461755853976, 0.22833817286921265, 0.3806805750452999, 0.23861496729835857, 0.05168135069926533, 0.06428094590110073, 0.06201904489803742, 0.07399582744741189]</t>
+    <t>[1.0, 0.2158584620117635, 0.07921189633648493, 0.08008533595227837, 0.04813017056828746, 0.06362111040704166, 0.21889671202069694, 0.3733268026268109, 0.2155397340088252, 0.06434753572771686, 0.02538232397625779, 0.04064795515769978, 0.06957247562040036, 0.21050128680010893, 0.36416141511695754, 0.22413347954352952, 0.028313399671818423, 0.03939200844539863, 0.03569433084334304, 0.049998537702642]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.23656447319548432, 0.10790904288092022, 0.11258384001444408, 0.08532292342101239, 0.09591582926565219, 0.23874234062856384, 0.3818282137264895, 0.23197123456382307, 0.09527165175886675, 0.060630782408546, 0.07475300955687776, 0.09617173222574335, 0.22911897627616779, 0.37797499176961974, 0.2401904668774304, 0.058552227093257685, 0.0706654922046988, 0.06883603226352107, 0.07935920786453086]</t>
+    <t>[1.0, 0.21490630963217355, 0.08582636982261824, 0.08983001010006395, 0.057518836548398344, 0.0715506465272342, 0.22038742740653314, 0.3685917942213751, 0.2144502988766464, 0.07174527256239713, 0.03272487559404901, 0.05006359524982565, 0.07674398819209349, 0.21078048932175994, 0.36056536290154806, 0.22553605174698974, 0.03558746497814142, 0.04621397598906925, 0.04289470404750156, 0.055505233613785974]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.708</v>
+        <v>2.404</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0004220773036983904</v>
+        <v>-0.0004149177480496889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.0214164673043349</v>
+        <v>-0.01905430008293248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02424153777720955</v>
+        <v>0.02966496776916974</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.042589437819421</v>
+        <v>1.060405156537753</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.005269993747900629</v>
+        <v>0.007197046582406103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.0959674207113704</v>
+        <v>0.1121724628569274</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.02099506191115441</v>
+        <v>0.02549378743211238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.002417014790568644</v>
+        <v>0.002045731721457663</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1024768663311893</v>
+        <v>-0.09420429781706366</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.02758526712822312</v>
+        <v>0.03403584203939997</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2158584620117635, 0.07921189633648493, 0.08008533595227837, 0.04813017056828746, 0.06362111040704166, 0.21889671202069694, 0.3733268026268109, 0.2155397340088252, 0.06434753572771686, 0.02538232397625779, 0.04064795515769978, 0.06957247562040036, 0.21050128680010893, 0.36416141511695754, 0.22413347954352952, 0.028313399671818423, 0.03939200844539863, 0.03569433084334304, 0.049998537702642]</t>
+    <t>[1.0, 0.2151549308327078, 0.07816655677432746, 0.07930948181075301, 0.046878059965325874, 0.06235897953964716, 0.21819458796998653, 0.37235869009907596, 0.2149235259311273, 0.06386939784605382, 0.024616406753886853, 0.04026214170303388, 0.06893680552945473, 0.20973289557518948, 0.3632339344392674, 0.22332091506090718, 0.027508033972460287, 0.039149997087396964, 0.035311814440135786, 0.049619895437818175]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.21490630963217355, 0.08582636982261824, 0.08983001010006395, 0.057518836548398344, 0.0715506465272342, 0.22038742740653314, 0.3685917942213751, 0.2144502988766464, 0.07174527256239713, 0.03272487559404901, 0.05006359524982565, 0.07674398819209349, 0.21078048932175994, 0.36056536290154806, 0.22553605174698974, 0.03558746497814142, 0.04621397598906925, 0.04289470404750156, 0.055505233613785974]</t>
+    <t>[1.0, 0.21501292045492706, 0.07917993512678827, 0.08034794535101615, 0.04789143869140638, 0.06317667931439425, 0.21826211596418207, 0.37162834915948617, 0.2147414345914138, 0.06481067548774962, 0.025314991838125758, 0.04097815421347617, 0.06961050446068438, 0.20952404817173312, 0.36244279649568034, 0.22347450761702337, 0.02828018752108814, 0.039840797173624896, 0.0361681579495062, 0.05020786007456066]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0004149177480496889</v>
+        <v>-0.0004812284099154532</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01905430008293248</v>
+        <v>-0.003608829674642622</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02966496776916974</v>
+        <v>0.02966370961644622</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.007197046582406103</v>
+        <v>0.003005388459806029</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1121724628569274</v>
+        <v>0.002984055386783263</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.02549378743211238</v>
+        <v>0.02552841863866622</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.002045731721457663</v>
+        <v>-0.001497563604437836</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.09420429781706366</v>
+        <v>-0.003068042538672286</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.03403584203939997</v>
+        <v>0.03406559366896734</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25343835012146443, 0.09280655831237815, 0.07106309684132593, 0.06286759160393271, 0.102424963693591, 0.2507954901809093, 0.3867591523752845, 0.2533253479852942, 0.09874202231487668, 0.06965319008505771, 0.0785864364683404, 0.09650927033820546, 0.25362936078105985, 0.40537372434938024, 0.24374099417826875, 0.05777453148521646, 0.06838908677790942, 0.0734034256836536, 0.08636054214680558]</t>
+    <t>[1.0, 0.253769643185465, 0.09168133324142269, 0.06974536101673491, 0.06161771953519132, 0.10126183335825506, 0.2508525183222177, 0.3881695389017516, 0.2532700440636223, 0.09719352169554886, 0.06820010073429045, 0.07688238826077794, 0.09512319756070209, 0.2538640572007374, 0.4069881872758495, 0.24381236459766442, 0.056537286818766734, 0.06671164665678242, 0.07180881045748895, 0.08489772771777448]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.253426444853556, 0.0936863756374946, 0.07177068808326868, 0.06350432470796778, 0.10306775148789492, 0.25100437118099045, 0.38590926370204615, 0.2531260484340503, 0.09913978650879665, 0.07000656834626198, 0.07876614304511899, 0.09693622596278428, 0.2533913374463392, 0.40462135930835164, 0.24395763371681808, 0.058327668575777425, 0.06910687574077427, 0.07393620195947648, 0.08693807353785679]</t>
+    <t>[0.9999999999999999, 0.2553927485275999, 0.10407769165931262, 0.08687993575737735, 0.07640305740193562, 0.11826643647463328, 0.25555697830038815, 0.3825389329050817, 0.254844714699065, 0.11020113727660379, 0.08332833375677075, 0.09228520452258848, 0.1083505429606133, 0.2558392713151685, 0.4015497169797526, 0.24675690976528838, 0.06939479329079168, 0.07942024365828708, 0.08317956420166256, 0.09618277635246343]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.001006390446196477</v>
+        <v>-0.0009214516252594898</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.004220283755676965</v>
+        <v>-0.009188889892643243</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02079053210166914</v>
+        <v>0.02079474206228022</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.002082678836262591</v>
+        <v>0.008169737245117279</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.001085784120509587</v>
+        <v>0.1601177263490018</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01936724632420771</v>
+        <v>0.01930805619532345</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.002948713093543781</v>
+        <v>0.0005750446363366753</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.001575830694473464</v>
+        <v>-0.1011632280354307</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.02228931146881035</v>
+        <v>0.02226465185617424</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-rngc1d-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.253769643185465, 0.09168133324142269, 0.06974536101673491, 0.06161771953519132, 0.10126183335825506, 0.2508525183222177, 0.3881695389017516, 0.2532700440636223, 0.09719352169554886, 0.06820010073429045, 0.07688238826077794, 0.09512319756070209, 0.2538640572007374, 0.4069881872758495, 0.24381236459766442, 0.056537286818766734, 0.06671164665678242, 0.07180881045748895, 0.08489772771777448]</t>
+    <t>[0.9999999999999999, 0.253769643185465, 0.09168133324142275, 0.06974536101673497, 0.06161771953519134, 0.10126183335825499, 0.25085251832221767, 0.388169538901752, 0.2532700440636222, 0.09719352169554887, 0.06820010073429039, 0.07688238826077796, 0.09512319756070207, 0.25386405720073757, 0.4069881872758495, 0.24381236459766414, 0.05653728681876675, 0.06671164665678242, 0.07180881045748898, 0.08489772771777453]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.2553927485275999, 0.10407769165931262, 0.08687993575737735, 0.07640305740193562, 0.11826643647463328, 0.25555697830038815, 0.3825389329050817, 0.254844714699065, 0.11020113727660379, 0.08332833375677075, 0.09228520452258848, 0.1083505429606133, 0.2558392713151685, 0.4015497169797526, 0.24675690976528838, 0.06939479329079168, 0.07942024365828708, 0.08317956420166256, 0.09618277635246343]</t>
+    <t>[0.9999999999999999, 0.25539274852759986, 0.10407769165931259, 0.08687993575737732, 0.07640305740193556, 0.11826643647463322, 0.2555569783003882, 0.3825389329050818, 0.25484471469906506, 0.1102011372766037, 0.08332833375677083, 0.09228520452258847, 0.10835054296061324, 0.25583927131516854, 0.40154971697975295, 0.24675690976528833, 0.06939479329079162, 0.07942024365828704, 0.08317956420166257, 0.09618277635246347]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0009214516252594898</v>
+        <v>-0.0009214516252594925</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.009188889892643243</v>
+        <v>-0.009188889892643262</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02079474206228022</v>
+        <v>0.02079474206228023</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.046487953851374</v>
+        <v>0.5113579837506218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.008169737245117279</v>
+        <v>0.008169737245117275</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1601177263490018</v>
+        <v>0.1601177263490016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0005750446363366753</v>
+        <v>0.0005750446363366718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
